--- a/Figure4/8wsignificance.xlsx
+++ b/Figure4/8wsignificance.xlsx
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="C20">
-        <v>0.1454288479000349</v>
+        <v>0.1027923941929266</v>
       </c>
       <c r="D20">
-        <v>0.3382271634850426</v>
+        <v>0.2891959840870001</v>
       </c>
     </row>
     <row r="21">
@@ -733,10 +733,10 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.4206177937712147</v>
+        <v>0.4354215620947797</v>
       </c>
       <c r="D21">
-        <v>0.7785792197390798</v>
+        <v>0.6927242098305808</v>
       </c>
     </row>
     <row r="22">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.7964107917146711</v>
+        <v>0.9037533697575735</v>
       </c>
       <c r="D22">
-        <v>0.4262204961221208</v>
+        <v>0.6064840833509557</v>
       </c>
     </row>
     <row r="23">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.7439076792012388</v>
+        <v>0.658753935064414</v>
       </c>
       <c r="D23">
-        <v>0.1772412609187736</v>
+        <v>0.2930846340023091</v>
       </c>
     </row>
     <row r="24">
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="C24">
-        <v>0.1195680176777824</v>
+        <v>0.1354226334146358</v>
       </c>
       <c r="D24">
-        <v>0.5345421070784049</v>
+        <v>0.576715412180361</v>
       </c>
     </row>
     <row r="25">
@@ -805,10 +805,10 @@
         </is>
       </c>
       <c r="C25">
-        <v>0.9525468339139315</v>
+        <v>0.986872913581528</v>
       </c>
       <c r="D25">
-        <v>0.9910340277766941</v>
+        <v>0.97220100275648</v>
       </c>
     </row>
   </sheetData>
